--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:00:26+00:00</t>
+    <t>2025-09-10T13:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T08:12:08+00:00</t>
+    <t>2025-09-11T09:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T09:46:41+00:00</t>
+    <t>2025-09-15T07:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T07:08:09+00:00</t>
+    <t>2025-09-17T15:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="552">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:38:22+00:00</t>
+    <t>2025-09-18T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>Period.end</t>
+  </si>
+  <si>
+    <t>dateFinTransport</t>
   </si>
   <si>
     <t>./high</t>
@@ -5738,31 +5741,31 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5784,14 +5787,14 @@
         <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5840,7 +5843,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5849,7 +5852,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5858,13 +5861,13 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5872,14 +5875,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5901,14 +5904,14 @@
         <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5957,7 +5960,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5966,7 +5969,7 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
@@ -5978,7 +5981,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5989,10 +5992,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6015,17 +6018,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6074,7 +6077,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6092,13 +6095,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6106,10 +6109,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6135,14 +6138,14 @@
         <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6170,10 +6173,10 @@
         <v>113</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6191,7 +6194,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6209,13 +6212,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6223,14 +6226,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6249,19 +6252,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6310,7 +6313,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6325,16 +6328,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6342,10 +6345,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6368,17 +6371,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6427,7 +6430,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6445,13 +6448,13 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6459,10 +6462,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6488,13 +6491,13 @@
         <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6523,7 +6526,7 @@
         <v>199</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
@@ -6544,7 +6547,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6562,24 +6565,24 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6605,13 +6608,13 @@
         <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6661,7 +6664,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6679,13 +6682,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6693,10 +6696,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6719,13 +6722,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6776,7 +6779,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6794,24 +6797,24 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6834,13 +6837,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6891,7 +6894,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6909,10 +6912,10 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6923,14 +6926,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6949,16 +6952,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7008,7 +7011,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7026,10 +7029,10 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7040,10 +7043,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7066,17 +7069,17 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7125,7 +7128,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7146,7 +7149,7 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7157,10 +7160,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7272,10 +7275,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7389,14 +7392,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7418,10 +7421,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>138</v>
@@ -7476,7 +7479,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7508,10 +7511,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7534,17 +7537,17 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7593,7 +7596,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7614,7 +7617,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7625,10 +7628,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7654,16 +7657,16 @@
         <v>265</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7712,7 +7715,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7733,7 +7736,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7744,10 +7747,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7770,13 +7773,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7827,7 +7830,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7848,7 +7851,7 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7859,14 +7862,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7885,17 +7888,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7932,7 +7935,7 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
@@ -7942,7 +7945,7 @@
         <v>280</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7963,7 +7966,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7974,10 +7977,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8089,10 +8092,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8206,14 +8209,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8235,10 +8238,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -8293,7 +8296,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8325,14 +8328,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8354,16 +8357,16 @@
         <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8391,7 +8394,7 @@
         <v>199</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
@@ -8412,7 +8415,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>89</v>
@@ -8433,7 +8436,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8444,10 +8447,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8470,13 +8473,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8527,7 +8530,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8548,7 +8551,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8559,16 +8562,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8587,17 +8590,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8646,7 +8649,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8661,13 +8664,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8678,10 +8681,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8793,10 +8796,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8910,14 +8913,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8939,10 +8942,10 @@
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>138</v>
@@ -8997,7 +9000,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9029,14 +9032,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9058,16 +9061,16 @@
         <v>195</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9077,7 +9080,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -9095,7 +9098,7 @@
         <v>199</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -9116,7 +9119,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
@@ -9137,7 +9140,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9148,10 +9151,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9177,10 +9180,10 @@
         <v>195</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9211,7 +9214,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9229,7 +9232,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>89</v>
@@ -9250,7 +9253,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9261,16 +9264,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9289,17 +9292,17 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9348,7 +9351,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9363,13 +9366,13 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9380,10 +9383,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9495,10 +9498,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9612,14 +9615,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9641,10 +9644,10 @@
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>138</v>
@@ -9699,7 +9702,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9731,14 +9734,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9760,16 +9763,16 @@
         <v>195</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9779,7 +9782,7 @@
         <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>78</v>
@@ -9797,7 +9800,7 @@
         <v>199</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9818,7 +9821,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>89</v>
@@ -9839,7 +9842,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9850,10 +9853,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9876,13 +9879,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9933,7 +9936,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>89</v>
@@ -9954,7 +9957,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9965,16 +9968,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9993,17 +9996,17 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10052,7 +10055,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10067,13 +10070,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10084,10 +10087,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10199,10 +10202,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10316,14 +10319,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10345,10 +10348,10 @@
         <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>138</v>
@@ -10403,7 +10406,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10435,14 +10438,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10464,16 +10467,16 @@
         <v>195</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10483,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10501,7 +10504,7 @@
         <v>199</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -10522,7 +10525,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>89</v>
@@ -10543,7 +10546,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10554,10 +10557,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10580,13 +10583,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10637,7 +10640,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>89</v>
@@ -10658,7 +10661,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10669,16 +10672,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10697,17 +10700,17 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10756,7 +10759,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10771,13 +10774,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10788,10 +10791,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10903,10 +10906,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11020,14 +11023,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11049,10 +11052,10 @@
         <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>138</v>
@@ -11107,7 +11110,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11139,14 +11142,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11168,16 +11171,16 @@
         <v>195</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11187,7 +11190,7 @@
         <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>78</v>
@@ -11205,7 +11208,7 @@
         <v>199</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>78</v>
@@ -11226,7 +11229,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>89</v>
@@ -11247,7 +11250,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11258,10 +11261,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11284,13 +11287,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11341,7 +11344,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>89</v>
@@ -11362,7 +11365,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11373,16 +11376,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11401,17 +11404,17 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11460,7 +11463,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11475,13 +11478,13 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11492,10 +11495,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11607,10 +11610,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11724,14 +11727,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11753,10 +11756,10 @@
         <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>138</v>
@@ -11811,7 +11814,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11843,14 +11846,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11872,16 +11875,16 @@
         <v>195</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11891,7 +11894,7 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>78</v>
@@ -11909,7 +11912,7 @@
         <v>199</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11930,7 +11933,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>89</v>
@@ -11951,7 +11954,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11962,10 +11965,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11988,13 +11991,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12045,7 +12048,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>89</v>
@@ -12066,7 +12069,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12077,16 +12080,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12105,17 +12108,17 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12164,7 +12167,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12179,13 +12182,13 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12196,10 +12199,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12311,10 +12314,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12428,14 +12431,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12457,10 +12460,10 @@
         <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>138</v>
@@ -12515,7 +12518,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12547,14 +12550,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12576,16 +12579,16 @@
         <v>195</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12595,7 +12598,7 @@
         <v>78</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>78</v>
@@ -12613,7 +12616,7 @@
         <v>199</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>78</v>
@@ -12634,7 +12637,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>89</v>
@@ -12655,7 +12658,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12666,10 +12669,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12692,13 +12695,13 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12749,7 +12752,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>89</v>
@@ -12770,7 +12773,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12781,16 +12784,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12809,17 +12812,17 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12868,7 +12871,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12883,13 +12886,13 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12900,10 +12903,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13015,10 +13018,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13132,14 +13135,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13161,10 +13164,10 @@
         <v>135</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>138</v>
@@ -13219,7 +13222,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13251,14 +13254,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13280,16 +13283,16 @@
         <v>195</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13299,7 +13302,7 @@
         <v>78</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>78</v>
@@ -13317,7 +13320,7 @@
         <v>199</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>78</v>
@@ -13338,7 +13341,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>89</v>
@@ -13359,7 +13362,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13370,10 +13373,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13396,13 +13399,13 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13453,7 +13456,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>89</v>
@@ -13474,7 +13477,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13485,16 +13488,16 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13513,17 +13516,17 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13572,7 +13575,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13587,13 +13590,13 @@
         <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13604,10 +13607,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13719,10 +13722,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13836,14 +13839,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13865,10 +13868,10 @@
         <v>135</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>138</v>
@@ -13923,7 +13926,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13955,14 +13958,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13984,16 +13987,16 @@
         <v>195</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14003,7 +14006,7 @@
         <v>78</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>78</v>
@@ -14021,7 +14024,7 @@
         <v>199</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>78</v>
@@ -14042,7 +14045,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>89</v>
@@ -14063,7 +14066,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14074,10 +14077,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14100,13 +14103,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14157,7 +14160,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>89</v>
@@ -14178,7 +14181,7 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14189,16 +14192,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14217,17 +14220,17 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14276,7 +14279,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14291,13 +14294,13 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14308,10 +14311,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14423,10 +14426,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14540,14 +14543,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14569,10 +14572,10 @@
         <v>135</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>138</v>
@@ -14627,7 +14630,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14659,14 +14662,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14688,16 +14691,16 @@
         <v>195</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14707,7 +14710,7 @@
         <v>78</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>78</v>
@@ -14725,7 +14728,7 @@
         <v>199</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>78</v>
@@ -14746,7 +14749,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>89</v>
@@ -14767,7 +14770,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14778,10 +14781,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14804,13 +14807,13 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14861,7 +14864,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>89</v>
@@ -14882,7 +14885,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -14893,16 +14896,16 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14921,17 +14924,17 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -14980,7 +14983,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -14995,13 +14998,13 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15012,10 +15015,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15127,10 +15130,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15244,14 +15247,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15273,10 +15276,10 @@
         <v>135</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>138</v>
@@ -15331,7 +15334,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15363,14 +15366,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15392,16 +15395,16 @@
         <v>195</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15411,7 +15414,7 @@
         <v>78</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>78</v>
@@ -15429,7 +15432,7 @@
         <v>199</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>78</v>
@@ -15450,7 +15453,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>89</v>
@@ -15471,7 +15474,7 @@
         <v>78</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15482,10 +15485,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15511,10 +15514,10 @@
         <v>195</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15545,7 +15548,7 @@
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -15563,7 +15566,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>89</v>
@@ -15584,7 +15587,7 @@
         <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>78</v>
@@ -15595,10 +15598,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15621,17 +15624,17 @@
         <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -15680,7 +15683,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15701,7 +15704,7 @@
         <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>78</v>
@@ -15712,10 +15715,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15827,10 +15830,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15944,14 +15947,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -15973,10 +15976,10 @@
         <v>135</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>138</v>
@@ -16031,7 +16034,7 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16063,14 +16066,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16092,14 +16095,14 @@
         <v>195</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
@@ -16127,7 +16130,7 @@
         <v>199</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>78</v>
@@ -16148,7 +16151,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>89</v>
@@ -16169,7 +16172,7 @@
         <v>78</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>78</v>
@@ -16180,10 +16183,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16206,17 +16209,17 @@
         <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -16265,7 +16268,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>89</v>
@@ -16286,7 +16289,7 @@
         <v>78</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T09:40:01+00:00</t>
+    <t>2025-09-18T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:48:58+00:00</t>
+    <t>2025-09-18T14:47:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Transport Usager</t>
+    <t>TDDUI Task Transport Usager</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T14:47:30+00:00</t>
+    <t>2025-09-23T09:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1554,9 +1554,6 @@
     <t>Distance du trajet</t>
   </si>
   <si>
-    <t>distanceTrajet</t>
-  </si>
-  <si>
     <t>Task.input:distance.id</t>
   </si>
   <si>
@@ -1591,9 +1588,6 @@
   </si>
   <si>
     <t>Durée théorique du trajet</t>
-  </si>
-  <si>
-    <t>dureeTheoriqueTrajet</t>
   </si>
   <si>
     <t>Task.input:dureeTheorique.id</t>
@@ -12182,7 +12176,7 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
@@ -12199,7 +12193,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>423</v>
@@ -12314,7 +12308,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>424</v>
@@ -12431,7 +12425,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>425</v>
@@ -12550,7 +12544,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>426</v>
@@ -12598,7 +12592,7 @@
         <v>78</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>78</v>
@@ -12669,7 +12663,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>433</v>
@@ -12695,7 +12689,7 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>435</v>
@@ -12784,13 +12778,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>416</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>417</v>
@@ -12815,7 +12809,7 @@
         <v>387</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>419</v>
@@ -12886,7 +12880,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
@@ -12903,7 +12897,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>423</v>
@@ -13018,7 +13012,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>424</v>
@@ -13135,7 +13129,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>425</v>
@@ -13254,7 +13248,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>426</v>
@@ -13302,7 +13296,7 @@
         <v>78</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>78</v>
@@ -13373,7 +13367,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>433</v>
@@ -13399,7 +13393,7 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>435</v>
@@ -13488,13 +13482,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>416</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>417</v>
@@ -13519,7 +13513,7 @@
         <v>387</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>419</v>
@@ -13590,7 +13584,7 @@
         <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
@@ -13607,7 +13601,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>423</v>
@@ -13722,7 +13716,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>424</v>
@@ -13839,7 +13833,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>425</v>
@@ -13958,7 +13952,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>426</v>
@@ -14006,7 +14000,7 @@
         <v>78</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>78</v>
@@ -14077,7 +14071,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>433</v>
@@ -14103,7 +14097,7 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>435</v>
@@ -14192,13 +14186,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>416</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>417</v>
@@ -14223,7 +14217,7 @@
         <v>387</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>419</v>
@@ -14294,7 +14288,7 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
@@ -14311,7 +14305,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>423</v>
@@ -14426,7 +14420,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>424</v>
@@ -14543,7 +14537,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>425</v>
@@ -14662,7 +14656,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>426</v>
@@ -14710,7 +14704,7 @@
         <v>78</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>78</v>
@@ -14781,7 +14775,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>433</v>
@@ -14807,7 +14801,7 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>435</v>
@@ -14896,13 +14890,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>416</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>417</v>
@@ -14927,7 +14921,7 @@
         <v>387</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>419</v>
@@ -14998,7 +14992,7 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>78</v>
@@ -15015,7 +15009,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>423</v>
@@ -15130,7 +15124,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>424</v>
@@ -15247,7 +15241,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>425</v>
@@ -15366,7 +15360,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>426</v>
@@ -15414,7 +15408,7 @@
         <v>78</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>78</v>
@@ -15485,7 +15479,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>433</v>
@@ -15548,7 +15542,7 @@
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -15598,10 +15592,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15627,14 +15621,14 @@
         <v>387</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -15683,7 +15677,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15715,10 +15709,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15830,10 +15824,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15947,10 +15941,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16066,10 +16060,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16095,14 +16089,14 @@
         <v>195</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
@@ -16130,7 +16124,7 @@
         <v>199</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>78</v>
@@ -16151,7 +16145,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>89</v>
@@ -16183,10 +16177,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16212,14 +16206,14 @@
         <v>434</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -16268,7 +16262,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>89</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T09:18:22+00:00</t>
+    <t>2025-09-23T12:45:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:45:16+00:00</t>
+    <t>2025-09-23T13:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:40:00+00:00</t>
+    <t>2025-09-24T08:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T08:59:11+00:00</t>
+    <t>2025-09-24T09:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:13:07+00:00</t>
+    <t>2025-09-25T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:00+00:00</t>
+    <t>2025-09-29T14:54:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:54:43+00:00</t>
+    <t>2025-09-30T08:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T08:07:48+00:00</t>
+    <t>2025-09-30T16:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T16:47:22+00:00</t>
+    <t>2025-10-01T14:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T14:45:31+00:00</t>
+    <t>2025-10-02T09:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:38:01+00:00</t>
+    <t>2025-10-02T12:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:26:13+00:00</t>
+    <t>2025-10-07T14:58:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Transport de l'usager</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -2114,7 +2114,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.93359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="47.7734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="94.296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:59:36+00:00</t>
+    <t>2025-10-10T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T14:52:44+00:00</t>
+    <t>2025-10-14T09:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:28:59+00:00</t>
+    <t>2025-10-15T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
